--- a/datasets/gastos.xlsx
+++ b/datasets/gastos.xlsx
@@ -5,22 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\APP_FINANCAS\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Documents\GitHub\streamlit_financas\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E9BA49-2688-446C-9D42-BC8F21120112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7722C55-4ACF-46D2-AF3B-D3FA4B8F6C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$A$63</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="160">
   <si>
     <t>Data</t>
   </si>
@@ -343,9 +347,6 @@
     <t>Cartão de crédito</t>
   </si>
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
     <t>Cris</t>
   </si>
   <si>
@@ -446,6 +447,63 @@
   </si>
   <si>
     <t>Alho</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Atacadão</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Facebook (Google DL)</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Ensino</t>
+  </si>
+  <si>
+    <t>Muque</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Curso de lógica</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Artigo</t>
+  </si>
+  <si>
+    <t>Mercado Livre (ConexãoP)</t>
+  </si>
+  <si>
+    <t>Amazon Marketplace</t>
+  </si>
+  <si>
+    <t>Muffato Bairro Alto</t>
+  </si>
+  <si>
+    <t>Panvel Farmácias (Remédio)</t>
+  </si>
+  <si>
+    <t>Ebook de música</t>
+  </si>
+  <si>
+    <t>HTM Asimov Academy</t>
+  </si>
+  <si>
+    <t>Mesa escritório</t>
   </si>
 </sst>
 </file>
@@ -525,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,6 +623,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +987,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>94</v>
@@ -951,7 +1016,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>94</v>
@@ -980,7 +1045,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>94</v>
@@ -1009,7 +1074,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>94</v>
@@ -1038,7 +1103,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>94</v>
@@ -1067,7 +1132,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>94</v>
@@ -1096,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>94</v>
@@ -1125,7 +1190,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>94</v>
@@ -1154,7 +1219,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>94</v>
@@ -1183,7 +1248,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>94</v>
@@ -1212,7 +1277,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>94</v>
@@ -1241,7 +1306,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>94</v>
@@ -1270,7 +1335,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>94</v>
@@ -1299,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>94</v>
@@ -1328,7 +1393,7 @@
         <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>94</v>
@@ -1357,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>94</v>
@@ -1386,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>94</v>
@@ -1415,7 +1480,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>94</v>
@@ -1444,7 +1509,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>94</v>
@@ -1473,7 +1538,7 @@
         <v>45733</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>94</v>
@@ -1502,7 +1567,7 @@
         <v>45733</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>94</v>
@@ -1531,7 +1596,7 @@
         <v>45733</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>94</v>
@@ -1560,7 +1625,7 @@
         <v>45733</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>94</v>
@@ -1589,7 +1654,7 @@
         <v>45733</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>94</v>
@@ -1618,7 +1683,7 @@
         <v>45733</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>94</v>
@@ -1647,7 +1712,7 @@
         <v>45733</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>94</v>
@@ -1676,7 +1741,7 @@
         <v>45728</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>105</v>
@@ -1705,7 +1770,7 @@
         <v>45734</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>105</v>
@@ -1734,7 +1799,7 @@
         <v>45734</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>105</v>
@@ -1763,7 +1828,7 @@
         <v>45728</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>105</v>
@@ -1792,7 +1857,7 @@
         <v>45734</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>105</v>
@@ -1821,7 +1886,7 @@
         <v>45723</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>105</v>
@@ -1850,7 +1915,7 @@
         <v>45726</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>105</v>
@@ -1879,7 +1944,7 @@
         <v>45726</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>105</v>
@@ -1908,7 +1973,7 @@
         <v>45726</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>105</v>
@@ -1937,7 +2002,7 @@
         <v>45726</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>105</v>
@@ -1966,7 +2031,7 @@
         <v>45726</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>105</v>
@@ -1975,7 +2040,7 @@
         <v>98</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>99</v>
@@ -1987,7 +2052,7 @@
         <v>99</v>
       </c>
       <c r="I38" s="5">
-        <v>50</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1995,16 +2060,16 @@
         <v>45726</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>99</v>
@@ -2016,7 +2081,7 @@
         <v>99</v>
       </c>
       <c r="I39" s="5">
-        <v>309</v>
+        <v>845.38</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,16 +2089,16 @@
         <v>45726</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>99</v>
@@ -2045,7 +2110,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="5">
-        <v>845.38</v>
+        <v>329.01</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2053,16 +2118,16 @@
         <v>45726</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>99</v>
@@ -2074,7 +2139,7 @@
         <v>99</v>
       </c>
       <c r="I41" s="5">
-        <v>329.01</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2082,7 +2147,7 @@
         <v>45726</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>94</v>
@@ -2091,7 +2156,7 @@
         <v>106</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>99</v>
@@ -2103,7 +2168,7 @@
         <v>99</v>
       </c>
       <c r="I42" s="5">
-        <v>249.75</v>
+        <v>97.55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2111,16 +2176,16 @@
         <v>45726</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>99</v>
@@ -2132,7 +2197,7 @@
         <v>99</v>
       </c>
       <c r="I43" s="5">
-        <v>97.55</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2140,16 +2205,16 @@
         <v>45726</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>99</v>
@@ -2161,7 +2226,7 @@
         <v>99</v>
       </c>
       <c r="I44" s="5">
-        <v>80.900000000000006</v>
+        <v>850.52</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,16 +2234,16 @@
         <v>45726</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>99</v>
@@ -2190,529 +2255,529 @@
         <v>99</v>
       </c>
       <c r="I45" s="5">
-        <v>850.52</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="15">
         <v>45726</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="5">
-        <v>600</v>
+      <c r="B46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="12">
+        <v>32.68</v>
+      </c>
+      <c r="I46" s="12">
+        <v>32.68</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="15">
         <v>45726</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="5">
-        <v>3386.93</v>
+      <c r="B47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="12">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="I47" s="12">
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="5">
-        <v>11.98</v>
-      </c>
-      <c r="I48" s="5">
-        <v>2.9</v>
+      <c r="A48" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="12">
+        <v>24.2</v>
+      </c>
+      <c r="I48" s="12">
+        <v>24.2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="5">
-        <v>9.49</v>
-      </c>
-      <c r="I49" s="5">
-        <v>9.49</v>
+      <c r="A49" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="12">
+        <v>72.62</v>
+      </c>
+      <c r="I49" s="12">
+        <v>72.62</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="5">
-        <v>9.89</v>
-      </c>
-      <c r="I50" s="5">
-        <v>9.89</v>
+      <c r="A50" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="12">
+        <v>28.7</v>
+      </c>
+      <c r="I50" s="12">
+        <v>28.7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2.89</v>
-      </c>
-      <c r="I51" s="5">
-        <v>11.56</v>
+      <c r="A51" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="12">
+        <v>321.05</v>
+      </c>
+      <c r="I51" s="12">
+        <v>321.05</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="5">
-        <v>10.99</v>
-      </c>
-      <c r="I52" s="5">
-        <v>10.99</v>
+      <c r="A52" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="12">
+        <v>53.9</v>
+      </c>
+      <c r="I52" s="12">
+        <v>53.9</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="5">
-        <v>14.99</v>
-      </c>
-      <c r="I53" s="5">
-        <v>14.99</v>
+      <c r="A53" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="12">
+        <v>19.78</v>
+      </c>
+      <c r="I53" s="12">
+        <v>19.78</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="I54" s="5">
-        <v>2.79</v>
+      <c r="A54" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="12">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="I54" s="12">
+        <v>261.60000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="5">
-        <v>6.97</v>
-      </c>
-      <c r="I55" s="5">
-        <v>6.97</v>
+      <c r="A55" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="12">
+        <v>50</v>
+      </c>
+      <c r="I55" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="A56" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="12">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I56" s="12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="11">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="12">
+        <v>127</v>
+      </c>
+      <c r="I57" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="12">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="I58" s="12">
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="11">
         <v>2</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="5">
-        <v>18.97</v>
-      </c>
-      <c r="I56" s="5">
-        <v>37.94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="I57" s="5">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="5">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="I58" s="5">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="5">
-        <v>4.99</v>
-      </c>
-      <c r="I59" s="5">
-        <v>4.99</v>
+      <c r="G59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="12">
+        <v>99.9</v>
+      </c>
+      <c r="I59" s="12">
+        <v>199.8</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60" s="5">
-        <v>12.49</v>
-      </c>
-      <c r="I60" s="5">
-        <v>12.49</v>
+      <c r="A60" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="12">
+        <v>62.82</v>
+      </c>
+      <c r="I60" s="12">
+        <v>62.82</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" s="5">
-        <v>4.99</v>
-      </c>
-      <c r="I61" s="5">
-        <v>29.94</v>
+      <c r="A61" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="12">
+        <v>63.9</v>
+      </c>
+      <c r="I61" s="12">
+        <v>63.9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="5">
-        <v>14.09</v>
-      </c>
-      <c r="I62" s="5">
-        <v>28.18</v>
+      <c r="A62" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="12">
+        <v>143</v>
+      </c>
+      <c r="I62" s="12">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="I63" s="5">
-        <v>10.76</v>
+      <c r="A63" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="12">
+        <v>149.9</v>
+      </c>
+      <c r="I63" s="12">
+        <v>149.9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2720,7 +2785,7 @@
         <v>45757</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>94</v>
@@ -2729,19 +2794,19 @@
         <v>100</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>2</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>68</v>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H64" s="5">
-        <v>2.69</v>
+        <v>11.98</v>
       </c>
       <c r="I64" s="5">
-        <v>5.38</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,7 +2814,7 @@
         <v>45757</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>94</v>
@@ -2758,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -2767,10 +2832,10 @@
         <v>68</v>
       </c>
       <c r="H65" s="5">
-        <v>27.89</v>
+        <v>9.49</v>
       </c>
       <c r="I65" s="5">
-        <v>27.89</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2778,16 +2843,16 @@
         <v>45757</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
@@ -2796,10 +2861,10 @@
         <v>68</v>
       </c>
       <c r="H66" s="5">
-        <v>27.69</v>
+        <v>9.89</v>
       </c>
       <c r="I66" s="5">
-        <v>27.69</v>
+        <v>9.89</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2807,7 +2872,7 @@
         <v>45757</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>94</v>
@@ -2816,19 +2881,19 @@
         <v>100</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H67" s="5">
-        <v>6.99</v>
+        <v>2.89</v>
       </c>
       <c r="I67" s="5">
-        <v>6.99</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2836,7 +2901,7 @@
         <v>45757</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>94</v>
@@ -2845,19 +2910,19 @@
         <v>100</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F68" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H68" s="5">
-        <v>23.9</v>
+        <v>10.99</v>
       </c>
       <c r="I68" s="5">
-        <v>23.9</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2865,28 +2930,28 @@
         <v>45757</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H69" s="5">
-        <v>3.79</v>
+        <v>14.99</v>
       </c>
       <c r="I69" s="5">
-        <v>7.58</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2894,7 +2959,7 @@
         <v>45757</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>94</v>
@@ -2903,7 +2968,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -2912,10 +2977,10 @@
         <v>68</v>
       </c>
       <c r="H70" s="5">
-        <v>27.69</v>
+        <v>2.79</v>
       </c>
       <c r="I70" s="5">
-        <v>27.69</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2923,7 +2988,7 @@
         <v>45757</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>94</v>
@@ -2932,19 +2997,19 @@
         <v>100</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F71" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H71" s="5">
-        <v>3.39</v>
+        <v>6.97</v>
       </c>
       <c r="I71" s="5">
-        <v>13.56</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +3017,7 @@
         <v>45757</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>94</v>
@@ -2961,7 +3026,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -2970,10 +3035,10 @@
         <v>68</v>
       </c>
       <c r="H72" s="5">
-        <v>4.99</v>
+        <v>18.97</v>
       </c>
       <c r="I72" s="5">
-        <v>9.98</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2981,7 +3046,7 @@
         <v>45757</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>94</v>
@@ -2990,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F73" s="3">
         <v>1</v>
@@ -2999,10 +3064,10 @@
         <v>68</v>
       </c>
       <c r="H73" s="5">
-        <v>20.99</v>
+        <v>3.99</v>
       </c>
       <c r="I73" s="5">
-        <v>20.99</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3010,16 +3075,16 @@
         <v>45757</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -3028,10 +3093,10 @@
         <v>68</v>
       </c>
       <c r="H74" s="5">
-        <v>6.99</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="I74" s="5">
-        <v>6.99</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3039,28 +3104,28 @@
         <v>45757</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F75" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H75" s="5">
-        <v>9.89</v>
+        <v>4.99</v>
       </c>
       <c r="I75" s="5">
-        <v>19.78</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3068,16 +3133,16 @@
         <v>45757</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -3086,10 +3151,10 @@
         <v>68</v>
       </c>
       <c r="H76" s="5">
-        <v>48.99</v>
+        <v>12.49</v>
       </c>
       <c r="I76" s="5">
-        <v>48.99</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3097,28 +3162,28 @@
         <v>45757</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H77" s="5">
-        <v>8.09</v>
+        <v>4.99</v>
       </c>
       <c r="I77" s="5">
-        <v>8.09</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3126,28 +3191,28 @@
         <v>45757</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H78" s="5">
-        <v>4.59</v>
+        <v>14.09</v>
       </c>
       <c r="I78" s="5">
-        <v>4.59</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3155,28 +3220,28 @@
         <v>45757</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F79" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H79" s="5">
-        <v>5.79</v>
+        <v>2.69</v>
       </c>
       <c r="I79" s="5">
-        <v>34.74</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3184,7 +3249,7 @@
         <v>45757</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>94</v>
@@ -3193,19 +3258,19 @@
         <v>100</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="5">
-        <v>10.69</v>
+        <v>2.69</v>
       </c>
       <c r="I80" s="5">
-        <v>10.69</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,16 +3278,16 @@
         <v>45757</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
@@ -3231,10 +3296,10 @@
         <v>68</v>
       </c>
       <c r="H81" s="5">
-        <v>12.99</v>
+        <v>27.89</v>
       </c>
       <c r="I81" s="5">
-        <v>12.99</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,16 +3307,16 @@
         <v>45757</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -3260,10 +3325,10 @@
         <v>68</v>
       </c>
       <c r="H82" s="5">
-        <v>4.58</v>
+        <v>27.69</v>
       </c>
       <c r="I82" s="5">
-        <v>4.58</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3271,16 +3336,16 @@
         <v>45757</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -3289,10 +3354,10 @@
         <v>68</v>
       </c>
       <c r="H83" s="5">
-        <v>16.89</v>
+        <v>6.99</v>
       </c>
       <c r="I83" s="5">
-        <v>16.89</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3300,28 +3365,28 @@
         <v>45757</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F84" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H84" s="5">
-        <v>15.49</v>
+        <v>23.9</v>
       </c>
       <c r="I84" s="5">
-        <v>15.49</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3329,28 +3394,28 @@
         <v>45757</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H85" s="5">
-        <v>16.989999999999998</v>
+        <v>3.79</v>
       </c>
       <c r="I85" s="5">
-        <v>16.989999999999998</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3358,16 +3423,16 @@
         <v>45757</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -3376,10 +3441,10 @@
         <v>68</v>
       </c>
       <c r="H86" s="5">
-        <v>23.9</v>
+        <v>27.69</v>
       </c>
       <c r="I86" s="5">
-        <v>23.9</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3387,28 +3452,28 @@
         <v>45757</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F87" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H87" s="5">
-        <v>23.9</v>
+        <v>3.39</v>
       </c>
       <c r="I87" s="5">
-        <v>23.9</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3416,74 +3481,74 @@
         <v>45757</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>104</v>
+      <c r="D88" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H88" s="5">
-        <v>34.99</v>
+        <v>4.99</v>
       </c>
       <c r="I88" s="5">
-        <v>34.99</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="7">
         <v>45757</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>106</v>
+      <c r="D89" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="H89" s="5">
+        <v>20.99</v>
       </c>
       <c r="I89" s="5">
-        <v>2396.91</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="7">
         <v>45757</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>104</v>
+      <c r="D90" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -3492,37 +3557,39 @@
         <v>68</v>
       </c>
       <c r="H90" s="5">
-        <v>138.6</v>
-      </c>
-      <c r="I90" s="5"/>
+        <v>6.99</v>
+      </c>
+      <c r="I90" s="5">
+        <v>6.99</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45757</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="11">
-        <v>1</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H91" s="12">
-        <v>6.99</v>
-      </c>
-      <c r="I91" s="12">
-        <v>6.99</v>
+        <v>110</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="5">
+        <v>9.89</v>
+      </c>
+      <c r="I91" s="5">
+        <v>19.78</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3530,28 +3597,28 @@
         <v>45757</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F92" s="11">
-        <v>1</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H92" s="12">
-        <v>13.97</v>
-      </c>
-      <c r="I92" s="12">
-        <v>13.97</v>
+        <v>110</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="5">
+        <v>48.99</v>
+      </c>
+      <c r="I92" s="5">
+        <v>48.99</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,28 +3626,28 @@
         <v>45757</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="11">
-        <v>2</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H93" s="12">
-        <v>6.99</v>
-      </c>
-      <c r="I93" s="12">
-        <v>13.98</v>
+        <v>110</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="5">
+        <v>8.09</v>
+      </c>
+      <c r="I93" s="5">
+        <v>8.09</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3588,144 +3655,145 @@
         <v>45757</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="12">
-        <v>7.99</v>
-      </c>
-      <c r="I94" s="12">
-        <v>7.11</v>
+        <v>110</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="5">
+        <v>4.59</v>
+      </c>
+      <c r="I94" s="5">
+        <v>4.59</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="7">
         <v>45757</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" s="11">
-        <v>1</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H95" s="12">
+        <v>110</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="I95" s="5">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="5">
+        <v>10.69</v>
+      </c>
+      <c r="I96" s="5">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="5">
         <v>12.99</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I97" s="5">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F96" s="11">
-        <v>1</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H96" s="12">
-        <v>9.49</v>
-      </c>
-      <c r="I96" s="12">
-        <v>9.49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="11">
-        <v>1</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H97" s="12">
-        <v>11.88</v>
-      </c>
-      <c r="I97" s="12">
-        <v>11.88</v>
-      </c>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>45757</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F98" s="11">
-        <v>2</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H98" s="12">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="I98" s="12">
-        <v>37.799999999999997</v>
+        <v>110</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="I98" s="5">
+        <v>4.58</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3733,58 +3801,57 @@
         <v>45757</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H99" s="12">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="I99" s="12">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="J99" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="5">
+        <v>16.89</v>
+      </c>
+      <c r="I99" s="5">
+        <v>16.89</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>45757</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" s="11">
-        <v>1</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H100" s="12">
-        <v>18.98</v>
-      </c>
-      <c r="I100" s="12">
-        <v>18.98</v>
+        <v>110</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="5">
+        <v>15.49</v>
+      </c>
+      <c r="I100" s="5">
+        <v>15.49</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3792,202 +3859,200 @@
         <v>45757</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" s="5">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I101" s="5">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="I102" s="5">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="I103" s="5">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="5">
+        <v>34.99</v>
+      </c>
+      <c r="I104" s="5">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I105" s="5">
+        <v>2396.91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F101" s="11">
-        <v>1</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H101" s="12">
-        <v>37.74</v>
-      </c>
-      <c r="I101" s="12">
-        <v>37.74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F102" s="11">
-        <v>1</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H102" s="12">
-        <v>10.98</v>
-      </c>
-      <c r="I102" s="12">
-        <v>10.98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="11">
-        <v>1</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H103" s="12">
-        <v>19.98</v>
-      </c>
-      <c r="I103" s="12">
-        <v>19.98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F104" s="11">
-        <v>2</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H104" s="12">
-        <v>21.98</v>
-      </c>
-      <c r="I104" s="12">
-        <v>43.96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="11">
-        <v>2</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H105" s="12">
-        <v>7.48</v>
-      </c>
-      <c r="I105" s="12">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F106" s="11">
-        <v>1</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H106" s="12">
-        <v>15.98</v>
-      </c>
-      <c r="I106" s="12">
-        <v>15.98</v>
-      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" s="5">
+        <v>138.6</v>
+      </c>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45757</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F107" s="11">
-        <v>1</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H107" s="12">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="I107" s="12">
-        <v>36.950000000000003</v>
+        <v>110</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="I107" s="14">
+        <v>6.99</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3995,202 +4060,202 @@
         <v>45757</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F108" s="11">
-        <v>1</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H108" s="12">
-        <v>27.98</v>
-      </c>
-      <c r="I108" s="12">
-        <v>27.98</v>
+        <v>110</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F108" s="8">
+        <v>1</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" s="14">
+        <v>13.97</v>
+      </c>
+      <c r="I108" s="14">
+        <v>13.97</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="7">
         <v>45757</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F109" s="11">
-        <v>1</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" s="12">
-        <v>-50</v>
-      </c>
-      <c r="I109" s="12">
-        <v>-50</v>
+        <v>110</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="8">
+        <v>2</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="I109" s="14">
+        <v>13.98</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="7">
         <v>45757</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="14">
+        <v>7.99</v>
+      </c>
+      <c r="I110" s="14">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" s="14">
+        <v>12.99</v>
+      </c>
+      <c r="I111" s="14">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="11">
-        <v>1</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" s="12">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="I110" s="12">
-        <v>9.7899999999999991</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F111" s="11">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="12">
-        <v>11.89</v>
-      </c>
-      <c r="I111" s="12">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
-        <v>45757</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F112" s="11">
-        <v>1</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H112" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="I112" s="12">
-        <v>5.99</v>
+      <c r="E112" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="8">
+        <v>1</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" s="14">
+        <v>9.49</v>
+      </c>
+      <c r="I112" s="14">
+        <v>9.49</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="4">
         <v>45757</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F113" s="11">
+        <v>110</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H113" s="14">
+        <v>11.88</v>
+      </c>
+      <c r="I113" s="14">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="8">
         <v>2</v>
       </c>
-      <c r="G113" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H113" s="12">
-        <v>4.09</v>
-      </c>
-      <c r="I113" s="12">
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>45757</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F114" s="11">
-        <v>1.38</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I114" s="12">
-        <v>5.51</v>
+      <c r="G114" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" s="14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I114" s="14">
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4198,28 +4263,28 @@
         <v>45757</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F115" s="11">
-        <v>1.68</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I115" s="12">
-        <v>6.7</v>
+        <v>110</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="14">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="I115" s="14">
+        <v>34.979999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4227,28 +4292,28 @@
         <v>45757</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="11">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I116" s="12">
-        <v>3.57</v>
+        <v>110</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" s="8">
+        <v>1</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" s="14">
+        <v>18.98</v>
+      </c>
+      <c r="I116" s="14">
+        <v>18.98</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,57 +4321,57 @@
         <v>45757</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F117" s="11">
-        <v>1</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="12">
-        <v>16</v>
-      </c>
-      <c r="I117" s="12">
-        <v>16</v>
+        <v>110</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="14">
+        <v>37.74</v>
+      </c>
+      <c r="I117" s="14">
+        <v>37.74</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118" s="4">
         <v>45757</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F118" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I118" s="12">
-        <v>8.91</v>
+        <v>110</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F118" s="8">
+        <v>1</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="14">
+        <v>10.98</v>
+      </c>
+      <c r="I118" s="14">
+        <v>10.98</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,28 +4379,28 @@
         <v>45757</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F119" s="11">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I119" s="12">
-        <v>14.9</v>
+        <v>110</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="8">
+        <v>1</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="14">
+        <v>19.98</v>
+      </c>
+      <c r="I119" s="14">
+        <v>19.98</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,28 +4408,28 @@
         <v>45757</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="11">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I120" s="12">
-        <v>3.85</v>
+        <v>110</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="8">
+        <v>2</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="14">
+        <v>21.98</v>
+      </c>
+      <c r="I120" s="14">
+        <v>43.96</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4372,28 +4437,28 @@
         <v>45757</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="11">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I121" s="12">
-        <v>6.92</v>
+        <v>110</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="8">
+        <v>2</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="14">
+        <v>7.48</v>
+      </c>
+      <c r="I121" s="14">
+        <v>14.96</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4401,28 +4466,28 @@
         <v>45757</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F122" s="11">
-        <v>1</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H122" s="12">
-        <v>3.99</v>
-      </c>
-      <c r="I122" s="12">
-        <v>3.99</v>
+        <v>110</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" s="8">
+        <v>1</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="14">
+        <v>15.98</v>
+      </c>
+      <c r="I122" s="14">
+        <v>15.98</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4430,115 +4495,115 @@
         <v>45757</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="11">
-        <v>1</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H123" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="I123" s="12">
-        <v>5.99</v>
+        <v>110</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" s="8">
+        <v>1</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="14">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="I123" s="14">
+        <v>36.950000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="7">
         <v>45757</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F124" s="11">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I124" s="12">
-        <v>1.73</v>
+        <v>110</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="8">
+        <v>1</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" s="14">
+        <v>27.98</v>
+      </c>
+      <c r="I124" s="14">
+        <v>27.98</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="4">
         <v>45757</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F125" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I125" s="12">
-        <v>1.98</v>
+        <v>110</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" s="8">
+        <v>1</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H125" s="14">
+        <v>-50</v>
+      </c>
+      <c r="I125" s="14">
+        <v>-50</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="4">
         <v>45757</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F126" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H126" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="I126" s="12">
-        <v>1.6</v>
+        <v>110</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="14">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="I126" s="14">
+        <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4546,28 +4611,28 @@
         <v>45757</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" s="11">
-        <v>1</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H127" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="I127" s="12">
-        <v>5.99</v>
+        <v>110</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="14">
+        <v>11.89</v>
+      </c>
+      <c r="I127" s="14">
+        <v>4.25</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,57 +4640,57 @@
         <v>45757</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="11">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="12">
-        <v>13.99</v>
-      </c>
-      <c r="I128" s="12">
-        <v>11.26</v>
+        <v>110</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" s="8">
+        <v>1</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" s="14">
+        <v>5.99</v>
+      </c>
+      <c r="I128" s="14">
+        <v>5.99</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="7">
         <v>45757</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F129" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="12">
-        <v>6.99</v>
-      </c>
-      <c r="I129" s="12">
-        <v>4.75</v>
+        <v>110</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="8">
+        <v>2</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" s="14">
+        <v>4.09</v>
+      </c>
+      <c r="I129" s="14">
+        <v>8.18</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4633,28 +4698,28 @@
         <v>45757</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F130" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G130" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H130" s="12">
-        <v>2.99</v>
-      </c>
-      <c r="I130" s="12">
-        <v>3.29</v>
+      <c r="H130" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I130" s="14">
+        <v>5.51</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,28 +4727,28 @@
         <v>45757</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F131" s="11">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="G131" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="12">
-        <v>4.99</v>
-      </c>
-      <c r="I131" s="12">
-        <v>4.47</v>
+      <c r="H131" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I131" s="14">
+        <v>6.7</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4691,28 +4756,28 @@
         <v>45757</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F132" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="G132" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="12">
-        <v>48</v>
-      </c>
-      <c r="I132" s="12">
-        <v>8.16</v>
+      <c r="H132" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I132" s="14">
+        <v>3.57</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4720,194 +4785,1145 @@
         <v>45757</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E133" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" s="14">
+        <v>16</v>
+      </c>
+      <c r="I133" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I134" s="14">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F135" s="8">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I135" s="14">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I136" s="14">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="8">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I137" s="14">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F138" s="8">
+        <v>1</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="I138" s="14">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" s="8">
+        <v>1</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="14">
+        <v>5.99</v>
+      </c>
+      <c r="I139" s="14">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I140" s="14">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I141" s="14">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="I142" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="8">
+        <v>1</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" s="14">
+        <v>5.99</v>
+      </c>
+      <c r="I143" s="14">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="14">
+        <v>13.99</v>
+      </c>
+      <c r="I144" s="14">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="I145" s="14">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="14">
+        <v>2.99</v>
+      </c>
+      <c r="I146" s="14">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="14">
+        <v>4.99</v>
+      </c>
+      <c r="I147" s="14">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F148" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="14">
+        <v>48</v>
+      </c>
+      <c r="I148" s="14">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F133" s="11">
-        <v>1</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H133" s="12">
+      <c r="F149" s="8">
+        <v>1</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" s="14">
         <v>5</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I149" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="I149" s="5"/>
-    </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="I150" s="5"/>
+      <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="I151" s="5"/>
+      <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="I152" s="5"/>
+      <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="I153" s="5"/>
+      <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="I154" s="5"/>
+      <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="I155" s="5"/>
+      <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="I156" s="5"/>
+      <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="I157" s="5"/>
+      <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="I158" s="5"/>
+      <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="I159" s="5"/>
+      <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="I161" s="5"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="I162" s="5"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="I163" s="5"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="I164" s="5"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="I165" s="5"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="I168" s="5"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="I169" s="5"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I170" s="5"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="5"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="5"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0C59DC-21E5-42DE-8282-317CEAA68DCF}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="12">
+        <v>32.68</v>
+      </c>
+      <c r="I2" s="12">
+        <v>32.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="12">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="I3" s="12">
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="12">
+        <v>24.2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="12">
+        <v>72.62</v>
+      </c>
+      <c r="I5" s="12">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="12">
+        <v>28.7</v>
+      </c>
+      <c r="I6" s="12">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="12">
+        <v>321.05</v>
+      </c>
+      <c r="I7" s="12">
+        <v>321.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="12">
+        <v>53.9</v>
+      </c>
+      <c r="I8" s="12">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="12">
+        <v>19.78</v>
+      </c>
+      <c r="I9" s="12">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="12">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="I10" s="12">
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="12">
+        <v>50</v>
+      </c>
+      <c r="I11" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="12">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I12" s="12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="12">
+        <v>127</v>
+      </c>
+      <c r="I13" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="12">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="I14" s="12">
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="12">
+        <v>99.9</v>
+      </c>
+      <c r="I15" s="12">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="12">
+        <v>62.82</v>
+      </c>
+      <c r="I16" s="12">
+        <v>62.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="12">
+        <v>63.9</v>
+      </c>
+      <c r="I17" s="12">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="12">
+        <v>143</v>
+      </c>
+      <c r="I18" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>45726</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="12">
+        <v>149.9</v>
+      </c>
+      <c r="I19" s="12">
+        <v>149.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/datasets/gastos.xlsx
+++ b/datasets/gastos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Documents\GitHub\streamlit_financas\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45756C6F-6E7E-4FA9-8C3E-2A0AE03ECF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66A9C2-3EFB-45D0-BDE3-75FED9A0841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="184">
   <si>
     <t>Data</t>
   </si>
@@ -543,6 +543,39 @@
   </si>
   <si>
     <t>12. Dezembro</t>
+  </si>
+  <si>
+    <t>Pizza Sadia 460g</t>
+  </si>
+  <si>
+    <t>Coca-Cola 2L</t>
+  </si>
+  <si>
+    <t>Arroz Prato Fino 2kg</t>
+  </si>
+  <si>
+    <t>Feijão Pontarollo 1kg</t>
+  </si>
+  <si>
+    <t>Açúcar Galo 500g</t>
+  </si>
+  <si>
+    <t>Maionese Heinz 500g</t>
+  </si>
+  <si>
+    <t>Margarina Qualy 500g</t>
+  </si>
+  <si>
+    <t>Filé Sadia 1kg</t>
+  </si>
+  <si>
+    <t>Hambúrguer Perdigão 150g</t>
+  </si>
+  <si>
+    <t>Queijo Président 300g</t>
+  </si>
+  <si>
+    <t>Cartão PF</t>
   </si>
 </sst>
 </file>
@@ -618,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,28 +677,22 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,11 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="A1:I193"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,28 +1051,28 @@
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="2">
         <v>4.99</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="2">
         <v>4.99</v>
       </c>
     </row>
@@ -1053,28 +1080,28 @@
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>1395</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="2">
         <v>19.52</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="2">
         <v>19.52</v>
       </c>
     </row>
@@ -1082,28 +1109,28 @@
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <v>0.76</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="2">
         <v>3.74</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="2">
         <v>3.79</v>
       </c>
     </row>
@@ -1111,28 +1138,28 @@
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>1.45</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="2">
         <v>14.45</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="2">
         <v>14.45</v>
       </c>
     </row>
@@ -1140,28 +1167,28 @@
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>2585</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="2">
         <v>11.87</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="2">
         <v>11.87</v>
       </c>
     </row>
@@ -1169,28 +1196,28 @@
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="1">
         <v>0.93500000000000005</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <v>6.54</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="2">
         <v>6.54</v>
       </c>
     </row>
@@ -1198,28 +1225,28 @@
       <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2">
         <v>16</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1227,28 +1254,28 @@
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>1055</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="2">
         <v>6.32</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="2">
         <v>6.32</v>
       </c>
     </row>
@@ -1256,28 +1283,28 @@
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="1">
         <v>0.995</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="2">
         <v>2.98</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="2">
         <v>2.98</v>
       </c>
     </row>
@@ -1285,28 +1312,28 @@
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="1">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="2">
         <v>2.39</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="2">
         <v>2.33</v>
       </c>
     </row>
@@ -1314,28 +1341,28 @@
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>1025</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="2">
         <v>3.06</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="2">
         <v>3.06</v>
       </c>
     </row>
@@ -1343,28 +1370,28 @@
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="2">
         <v>4.3899999999999997</v>
       </c>
     </row>
@@ -1372,28 +1399,28 @@
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="1">
         <v>0.37</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="2">
         <v>1.48</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="2">
         <v>1.48</v>
       </c>
     </row>
@@ -1401,28 +1428,28 @@
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="1">
         <v>0.46</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="2">
         <v>1.04</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="2">
         <v>1.84</v>
       </c>
     </row>
@@ -1430,28 +1457,28 @@
       <c r="A16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="1">
         <v>1.47</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1459,28 +1486,28 @@
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1488,28 +1515,28 @@
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="2">
         <v>1.4</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -1517,28 +1544,28 @@
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>1205</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="2">
         <v>4.8099999999999996</v>
       </c>
     </row>
@@ -1546,231 +1573,231 @@
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <v>45733</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>2</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="13">
         <v>12.49</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>24.98</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>45733</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="13">
         <v>14.99</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <v>14.99</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>45733</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="13">
         <v>57.99</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="13">
         <v>57.99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="12">
         <v>45733</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="13">
         <v>2.79</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>5.58</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="12">
         <v>45733</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>2</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="G25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="13">
         <v>3.99</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="13">
         <v>7.98</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="12">
         <v>45733</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="13">
         <v>7.79</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="13">
         <v>7.79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="12">
         <v>45733</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="15">
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="13">
         <v>9.58</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>9.58</v>
       </c>
     </row>
@@ -1778,28 +1805,28 @@
       <c r="A28" s="9">
         <v>45728</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="2">
         <v>50</v>
       </c>
     </row>
@@ -1807,28 +1834,28 @@
       <c r="A29" s="9">
         <v>45734</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="2">
         <v>245.23</v>
       </c>
     </row>
@@ -1836,28 +1863,28 @@
       <c r="A30" s="9">
         <v>45734</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="2">
         <v>220.39</v>
       </c>
     </row>
@@ -1865,28 +1892,28 @@
       <c r="A31" s="9">
         <v>45728</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="2">
         <v>144.9</v>
       </c>
     </row>
@@ -1894,28 +1921,28 @@
       <c r="A32" s="9">
         <v>45734</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="2">
         <v>158.18</v>
       </c>
     </row>
@@ -1923,28 +1950,28 @@
       <c r="A33" s="9">
         <v>45723</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="2">
         <v>87.99</v>
       </c>
     </row>
@@ -1952,28 +1979,28 @@
       <c r="A34" s="9">
         <v>45726</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="2">
         <v>184</v>
       </c>
     </row>
@@ -1981,28 +2008,28 @@
       <c r="A35" s="9">
         <v>45726</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="2">
         <v>27.9</v>
       </c>
     </row>
@@ -2010,28 +2037,28 @@
       <c r="A36" s="9">
         <v>45726</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="2">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -2039,28 +2066,28 @@
       <c r="A37" s="9">
         <v>45726</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="2">
         <v>112.27</v>
       </c>
     </row>
@@ -2068,28 +2095,28 @@
       <c r="A38" s="9">
         <v>45726</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="2">
         <v>309</v>
       </c>
     </row>
@@ -2097,28 +2124,28 @@
       <c r="A39" s="9">
         <v>45726</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="2">
         <v>845.38</v>
       </c>
     </row>
@@ -2126,28 +2153,28 @@
       <c r="A40" s="9">
         <v>45726</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="2">
         <v>329.01</v>
       </c>
     </row>
@@ -2155,28 +2182,28 @@
       <c r="A41" s="9">
         <v>45726</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="2">
         <v>249.75</v>
       </c>
     </row>
@@ -2184,28 +2211,28 @@
       <c r="A42" s="9">
         <v>45726</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="2">
         <v>97.55</v>
       </c>
     </row>
@@ -2213,28 +2240,28 @@
       <c r="A43" s="9">
         <v>45726</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="2">
         <v>80.900000000000006</v>
       </c>
     </row>
@@ -2242,28 +2269,28 @@
       <c r="A44" s="9">
         <v>45726</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="2">
         <v>850.52</v>
       </c>
     </row>
@@ -2271,1740 +2298,1740 @@
       <c r="A45" s="9">
         <v>45726</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="12">
         <v>45726</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="B46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="13">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="16">
+      <c r="F46" s="11">
+        <v>1</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="14">
         <v>32.68</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="14">
         <v>32.68</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="12">
         <v>45726</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="B47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="13">
-        <v>1</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="F47" s="11">
+        <v>1</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="14">
         <v>36.590000000000003</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <v>36.590000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="12">
         <v>45726</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="B48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="13">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="16">
+      <c r="F48" s="11">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="14">
         <v>24.2</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="14">
         <v>24.2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="12">
         <v>45726</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="13" t="s">
+      <c r="B49" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="13">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="14">
         <v>72.62</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="14">
         <v>72.62</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="12">
         <v>45726</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="13" t="s">
+      <c r="B50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="13">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="16">
+      <c r="F50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="14">
         <v>28.7</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="14">
         <v>28.7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="12">
         <v>45726</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="B51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="16">
+      <c r="F51" s="11">
+        <v>1</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="14">
         <v>321.05</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="14">
         <v>321.05</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="12">
         <v>45726</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="13" t="s">
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="16">
+      <c r="F52" s="11">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="14">
         <v>53.9</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="14">
         <v>53.9</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="12">
         <v>45726</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="13" t="s">
+      <c r="B53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="16">
+      <c r="F53" s="11">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="14">
         <v>19.78</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="14">
         <v>19.78</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="12">
         <v>45726</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="13" t="s">
+      <c r="B54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="16">
+      <c r="F54" s="11">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="14">
         <v>261.60000000000002</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="14">
         <v>261.60000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="12">
         <v>45726</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="B55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="16">
+      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="14">
         <v>50</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="12">
         <v>45726</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="B56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="16">
+      <c r="F56" s="11">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="14">
         <v>19.899999999999999</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="14">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="12">
         <v>45726</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="13" t="s">
+      <c r="B57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="13">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="16">
+      <c r="F57" s="11">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="14">
         <v>127</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="14">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="12">
         <v>45726</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="B58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="13">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="16">
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="14">
         <v>33.909999999999997</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="14">
         <v>33.909999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="12">
         <v>45726</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="B59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="11">
         <v>2</v>
       </c>
-      <c r="G59" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="16">
+      <c r="G59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="14">
         <v>99.9</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="12">
         <v>45726</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="B60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F60" s="13">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60" s="16">
+      <c r="F60" s="11">
+        <v>1</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="14">
         <v>62.82</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="12">
         <v>45726</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="13" t="s">
+      <c r="B61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F61" s="13">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" s="16">
+      <c r="F61" s="11">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="14">
         <v>63.9</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="14">
         <v>63.9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="12">
         <v>45726</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="B62" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="16">
+      <c r="F62" s="11">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="14">
         <v>143</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="14">
         <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="12">
         <v>45726</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="B63" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="13">
-        <v>1</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="16">
+      <c r="F63" s="11">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="14">
         <v>149.9</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="A64" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="2">
         <v>11.98</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="2">
         <v>2.9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="A65" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H65" s="11">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="2">
         <v>9.49</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="2">
         <v>9.49</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="A66" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="10">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="2">
         <v>9.89</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="2">
         <v>9.89</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="A67" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="1">
         <v>4</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="G67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="2">
         <v>2.89</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="2">
         <v>11.56</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="A68" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="10">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="11">
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="2">
         <v>10.99</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="2">
         <v>10.99</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="A69" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="10">
-        <v>1</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="2">
         <v>14.99</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="2">
         <v>14.99</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="A70" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="10">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="11">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="2">
         <v>2.79</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="2">
         <v>2.79</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="A71" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="10">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H71" s="11">
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="2">
         <v>6.97</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="2">
         <v>6.97</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="A72" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="1">
         <v>2</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="G72" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="2">
         <v>18.97</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="2">
         <v>37.94</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="A73" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="10">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="11">
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="2">
         <v>3.99</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="2">
         <v>3.99</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="A74" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="10">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" s="11">
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="2">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="2">
         <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="A75" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="10">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H75" s="11">
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="2">
         <v>4.99</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="2">
         <v>4.99</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="A76" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="10">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="2">
         <v>12.49</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="2">
         <v>12.49</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="A77" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="1">
         <v>6</v>
       </c>
-      <c r="G77" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H77" s="11">
+      <c r="G77" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="2">
         <v>4.99</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="2">
         <v>29.94</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="A78" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="1">
         <v>2</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="11">
+      <c r="G78" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="2">
         <v>14.09</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="2">
         <v>28.18</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="A79" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="1">
         <v>4</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" s="11">
+      <c r="G79" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="2">
         <v>2.69</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="2">
         <v>10.76</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="A80" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="1">
         <v>2</v>
       </c>
-      <c r="G80" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="11">
+      <c r="G80" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="2">
         <v>2.69</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="2">
         <v>5.38</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="A81" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="10">
-        <v>1</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="11">
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="2">
         <v>27.89</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="2">
         <v>27.89</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="A82" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="10">
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" s="11">
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="2">
         <v>27.69</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="2">
         <v>27.69</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="A83" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" s="11">
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="2">
         <v>6.99</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="2">
         <v>6.99</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" s="10" t="s">
+      <c r="A84" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="1">
         <v>30</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="G84" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="2">
         <v>23.9</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="2">
         <v>23.9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="A85" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H85" s="11">
+      <c r="G85" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="2">
         <v>3.79</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85" s="2">
         <v>7.58</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="10" t="s">
+      <c r="A86" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" s="11">
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="2">
         <v>27.69</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="2">
         <v>27.69</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="A87" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="1">
         <v>4</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" s="11">
+      <c r="G87" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="2">
         <v>3.39</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="2">
         <v>13.56</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E88" s="10" t="s">
+      <c r="A88" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="1">
         <v>2</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="G88" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="2">
         <v>4.99</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88" s="2">
         <v>9.98</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="A89" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F89" s="10">
-        <v>1</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H89" s="11">
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="2">
         <v>20.99</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89" s="2">
         <v>20.99</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="A90" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="10">
-        <v>1</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H90" s="11">
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" s="2">
         <v>6.99</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90" s="2">
         <v>6.99</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="A91" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="1">
         <v>2</v>
       </c>
-      <c r="G91" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H91" s="11">
+      <c r="G91" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="2">
         <v>9.89</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I91" s="2">
         <v>19.78</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="10" t="s">
+      <c r="A92" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="10">
-        <v>1</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H92" s="11">
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="2">
         <v>48.99</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="2">
         <v>48.99</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="A93" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F93" s="10">
-        <v>1</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H93" s="11">
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="2">
         <v>8.09</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93" s="2">
         <v>8.09</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="A94" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="10">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="2">
         <v>4.59</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I94" s="2">
         <v>4.59</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="A95" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="1">
         <v>6</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H95" s="11">
+      <c r="G95" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="2">
         <v>5.79</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="2">
         <v>34.74</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" s="10" t="s">
+      <c r="A96" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="10">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H96" s="11">
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="2">
         <v>10.69</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="2">
         <v>10.69</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="A97" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F97" s="10">
-        <v>1</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H97" s="11">
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="2">
         <v>12.99</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="2">
         <v>12.99</v>
       </c>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="A98" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="10">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" s="2">
         <v>4.58</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="2">
         <v>4.58</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="A99" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="10">
-        <v>1</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H99" s="11">
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="2">
         <v>16.89</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="2">
         <v>16.89</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="A100" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F100" s="10">
-        <v>1</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H100" s="11">
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="2">
         <v>15.49</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100" s="2">
         <v>15.49</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="A101" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F101" s="10">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" s="2">
         <v>16.989999999999998</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="2">
         <v>16.989999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="A102" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="10">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" s="2">
         <v>23.9</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="2">
         <v>23.9</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="A103" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="10">
-        <v>1</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H103" s="11">
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" s="2">
         <v>23.9</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103" s="2">
         <v>23.9</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="A104" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="10">
-        <v>1</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H104" s="11">
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="2">
         <v>34.99</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="2">
         <v>34.99</v>
       </c>
     </row>
@@ -4012,28 +4039,28 @@
       <c r="A105" s="9">
         <v>45757</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="B105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H105" s="13" t="s">
+      <c r="H105" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I105" s="2">
         <v>2396.91</v>
       </c>
     </row>
@@ -4041,142 +4068,142 @@
       <c r="A106" s="9">
         <v>45757</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="B106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F106" s="10">
-        <v>1</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" s="2">
         <v>138.6</v>
       </c>
-      <c r="I106" s="11"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E107" s="13" t="s">
+      <c r="A107" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="13">
-        <v>1</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H107" s="16">
+      <c r="F107" s="11">
+        <v>1</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="14">
         <v>6.99</v>
       </c>
-      <c r="I107" s="16">
+      <c r="I107" s="14">
         <v>6.99</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="13" t="s">
+      <c r="A108" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="13">
-        <v>1</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H108" s="16">
+      <c r="F108" s="11">
+        <v>1</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" s="14">
         <v>13.97</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="14">
         <v>13.97</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="13" t="s">
+      <c r="A109" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="11">
         <v>2</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" s="16">
+      <c r="G109" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="14">
         <v>6.99</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="14">
         <v>13.98</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="A110" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="11">
         <v>0.89</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="G110" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H110" s="16">
+      <c r="H110" s="14">
         <v>7.99</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="14">
         <v>7.11</v>
       </c>
     </row>
@@ -4184,28 +4211,28 @@
       <c r="A111" s="9">
         <v>45757</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="13" t="s">
+      <c r="B111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="13">
-        <v>1</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H111" s="16">
+      <c r="F111" s="11">
+        <v>1</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" s="14">
         <v>12.99</v>
       </c>
-      <c r="I111" s="16">
+      <c r="I111" s="14">
         <v>12.99</v>
       </c>
     </row>
@@ -4213,28 +4240,28 @@
       <c r="A112" s="9">
         <v>45757</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="13" t="s">
+      <c r="B112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="13">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H112" s="16">
+      <c r="F112" s="11">
+        <v>1</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" s="14">
         <v>9.49</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="14">
         <v>9.49</v>
       </c>
     </row>
@@ -4242,144 +4269,144 @@
       <c r="A113" s="9">
         <v>45757</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="13" t="s">
+      <c r="B113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F113" s="13">
-        <v>1</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H113" s="16">
+      <c r="F113" s="11">
+        <v>1</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H113" s="14">
         <v>11.88</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="14">
         <v>11.88</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="13" t="s">
+      <c r="A114" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="11">
         <v>2</v>
       </c>
-      <c r="G114" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H114" s="16">
+      <c r="G114" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" s="14">
         <v>18.899999999999999</v>
       </c>
-      <c r="I114" s="16">
+      <c r="I114" s="14">
         <v>37.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="13" t="s">
+      <c r="A115" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F115" s="13">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" s="16">
+      <c r="F115" s="11">
+        <v>1</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="14">
         <v>34.979999999999997</v>
       </c>
-      <c r="I115" s="16">
+      <c r="I115" s="14">
         <v>34.979999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="13" t="s">
+      <c r="A116" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F116" s="13">
-        <v>1</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H116" s="16">
+      <c r="F116" s="11">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" s="14">
         <v>18.98</v>
       </c>
-      <c r="I116" s="16">
+      <c r="I116" s="14">
         <v>18.98</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="A117" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="E117" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F117" s="13">
-        <v>1</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="16">
+      <c r="F117" s="11">
+        <v>1</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="14">
         <v>37.74</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="14">
         <v>37.74</v>
       </c>
     </row>
@@ -4387,28 +4414,28 @@
       <c r="A118" s="9">
         <v>45757</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="13" t="s">
+      <c r="B118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="E118" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F118" s="13">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H118" s="16">
+      <c r="F118" s="11">
+        <v>1</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="14">
         <v>10.98</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="14">
         <v>10.98</v>
       </c>
     </row>
@@ -4416,28 +4443,28 @@
       <c r="A119" s="9">
         <v>45757</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="13" t="s">
+      <c r="B119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F119" s="13">
-        <v>1</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="16">
+      <c r="F119" s="11">
+        <v>1</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="14">
         <v>19.98</v>
       </c>
-      <c r="I119" s="16">
+      <c r="I119" s="14">
         <v>19.98</v>
       </c>
     </row>
@@ -4445,144 +4472,144 @@
       <c r="A120" s="9">
         <v>45757</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" s="13" t="s">
+      <c r="B120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120" s="11">
         <v>2</v>
       </c>
-      <c r="G120" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H120" s="16">
+      <c r="G120" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="14">
         <v>21.98</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120" s="14">
         <v>43.96</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="13" t="s">
+      <c r="A121" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="E121" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="11">
         <v>2</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="16">
+      <c r="G121" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="14">
         <v>7.48</v>
       </c>
-      <c r="I121" s="16">
+      <c r="I121" s="14">
         <v>14.96</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="13" t="s">
+      <c r="A122" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="E122" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F122" s="13">
-        <v>1</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H122" s="16">
+      <c r="F122" s="11">
+        <v>1</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="14">
         <v>15.98</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="14">
         <v>15.98</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" s="13" t="s">
+      <c r="A123" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F123" s="13">
-        <v>1</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H123" s="16">
+      <c r="F123" s="11">
+        <v>1</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="14">
         <v>36.950000000000003</v>
       </c>
-      <c r="I123" s="16">
+      <c r="I123" s="14">
         <v>36.950000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="13" t="s">
+      <c r="A124" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="E124" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F124" s="13">
-        <v>1</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H124" s="16">
+      <c r="F124" s="11">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" s="14">
         <v>27.98</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="14">
         <v>27.98</v>
       </c>
     </row>
@@ -4590,28 +4617,28 @@
       <c r="A125" s="9">
         <v>45757</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E125" s="13" t="s">
+      <c r="B125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F125" s="13">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H125" s="16">
+      <c r="F125" s="11">
+        <v>1</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H125" s="14">
         <v>-50</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I125" s="14">
         <v>-50</v>
       </c>
     </row>
@@ -4619,115 +4646,115 @@
       <c r="A126" s="9">
         <v>45757</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="13" t="s">
+      <c r="B126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E126" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="13">
-        <v>1</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H126" s="16">
+      <c r="F126" s="11">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="14">
         <v>9.7899999999999991</v>
       </c>
-      <c r="I126" s="16">
+      <c r="I126" s="14">
         <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="13" t="s">
+      <c r="A127" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="11">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H127" s="16">
+      <c r="H127" s="14">
         <v>11.89</v>
       </c>
-      <c r="I127" s="16">
+      <c r="I127" s="14">
         <v>4.25</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E128" s="13" t="s">
+      <c r="A128" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F128" s="13">
-        <v>1</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H128" s="16">
+      <c r="F128" s="11">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" s="14">
         <v>5.99</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="14">
         <v>5.99</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="13" t="s">
+      <c r="A129" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="E129" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F129" s="13">
+      <c r="F129" s="11">
         <v>2</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H129" s="16">
+      <c r="G129" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" s="14">
         <v>4.09</v>
       </c>
-      <c r="I129" s="16">
+      <c r="I129" s="14">
         <v>8.18</v>
       </c>
     </row>
@@ -4735,144 +4762,144 @@
       <c r="A130" s="9">
         <v>45757</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E130" s="13" t="s">
+      <c r="B130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F130" s="13">
+      <c r="F130" s="11">
         <v>1.38</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="G130" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H130" s="16">
+      <c r="H130" s="14">
         <v>3.99</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="14">
         <v>5.51</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="13" t="s">
+      <c r="A131" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="11">
         <v>1.68</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="G131" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="16">
+      <c r="H131" s="14">
         <v>3.99</v>
       </c>
-      <c r="I131" s="16">
+      <c r="I131" s="14">
         <v>6.7</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E132" s="13" t="s">
+      <c r="A132" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F132" s="13">
+      <c r="F132" s="11">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G132" s="13" t="s">
+      <c r="G132" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="16">
+      <c r="H132" s="14">
         <v>3.99</v>
       </c>
-      <c r="I132" s="16">
+      <c r="I132" s="14">
         <v>3.57</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E133" s="13" t="s">
+      <c r="A133" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="13">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H133" s="16">
+      <c r="F133" s="11">
+        <v>1</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" s="14">
         <v>16</v>
       </c>
-      <c r="I133" s="16">
+      <c r="I133" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E134" s="13" t="s">
+      <c r="A134" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="11">
         <v>0.9</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H134" s="16">
+      <c r="H134" s="14">
         <v>9.9</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="14">
         <v>8.91</v>
       </c>
     </row>
@@ -4880,28 +4907,28 @@
       <c r="A135" s="9">
         <v>45757</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" s="13" t="s">
+      <c r="B135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135" s="11">
         <v>1.5049999999999999</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="G135" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="16">
+      <c r="H135" s="14">
         <v>9.9</v>
       </c>
-      <c r="I135" s="16">
+      <c r="I135" s="14">
         <v>14.9</v>
       </c>
     </row>
@@ -4909,115 +4936,115 @@
       <c r="A136" s="9">
         <v>45757</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E136" s="13" t="s">
+      <c r="B136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F136" s="13">
+      <c r="F136" s="11">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G136" s="13" t="s">
+      <c r="G136" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="16">
+      <c r="H136" s="14">
         <v>3.99</v>
       </c>
-      <c r="I136" s="16">
+      <c r="I136" s="14">
         <v>3.85</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E137" s="13" t="s">
+      <c r="A137" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="11">
         <v>1.7350000000000001</v>
       </c>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="16">
+      <c r="H137" s="14">
         <v>3.99</v>
       </c>
-      <c r="I137" s="16">
+      <c r="I137" s="14">
         <v>6.92</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138" s="13" t="s">
+      <c r="A138" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F138" s="13">
-        <v>1</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H138" s="16">
+      <c r="F138" s="11">
+        <v>1</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="14">
         <v>3.99</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="14">
         <v>3.99</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E139" s="13" t="s">
+      <c r="A139" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F139" s="13">
-        <v>1</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H139" s="16">
+      <c r="F139" s="11">
+        <v>1</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="14">
         <v>5.99</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I139" s="14">
         <v>5.99</v>
       </c>
     </row>
@@ -5025,144 +5052,144 @@
       <c r="A140" s="9">
         <v>45757</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E140" s="13" t="s">
+      <c r="B140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="G140" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H140" s="16">
+      <c r="H140" s="14">
         <v>9.9</v>
       </c>
-      <c r="I140" s="16">
+      <c r="I140" s="14">
         <v>1.73</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E141" s="13" t="s">
+      <c r="A141" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141" s="11">
         <v>0.2</v>
       </c>
-      <c r="G141" s="13" t="s">
+      <c r="G141" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H141" s="16">
+      <c r="H141" s="14">
         <v>9.9</v>
       </c>
-      <c r="I141" s="16">
+      <c r="I141" s="14">
         <v>1.98</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E142" s="13" t="s">
+      <c r="A142" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="11">
         <v>0.18</v>
       </c>
-      <c r="G142" s="13" t="s">
+      <c r="G142" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="16">
+      <c r="H142" s="14">
         <v>8.9</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E143" s="13" t="s">
+      <c r="A143" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F143" s="13">
-        <v>1</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H143" s="16">
+      <c r="F143" s="11">
+        <v>1</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" s="14">
         <v>5.99</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="14">
         <v>5.99</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E144" s="13" t="s">
+      <c r="A144" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="11">
         <v>0.80500000000000005</v>
       </c>
-      <c r="G144" s="13" t="s">
+      <c r="G144" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H144" s="16">
+      <c r="H144" s="14">
         <v>13.99</v>
       </c>
-      <c r="I144" s="16">
+      <c r="I144" s="14">
         <v>11.26</v>
       </c>
     </row>
@@ -5170,28 +5197,28 @@
       <c r="A145" s="9">
         <v>45757</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E145" s="13" t="s">
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="11">
         <v>0.68</v>
       </c>
-      <c r="G145" s="13" t="s">
+      <c r="G145" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="16">
+      <c r="H145" s="14">
         <v>6.99</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="14">
         <v>4.75</v>
       </c>
     </row>
@@ -5199,1392 +5226,2001 @@
       <c r="A146" s="9">
         <v>45757</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E146" s="13" t="s">
+      <c r="B146" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F146" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G146" s="13" t="s">
+      <c r="G146" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H146" s="16">
+      <c r="H146" s="14">
         <v>2.99</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="14">
         <v>3.29</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E147" s="13" t="s">
+      <c r="A147" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="11">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G147" s="13" t="s">
+      <c r="G147" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H147" s="16">
+      <c r="H147" s="14">
         <v>4.99</v>
       </c>
-      <c r="I147" s="16">
+      <c r="I147" s="14">
         <v>4.47</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E148" s="13" t="s">
+      <c r="A148" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148" s="11">
         <v>0.17</v>
       </c>
-      <c r="G148" s="13" t="s">
+      <c r="G148" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H148" s="16">
+      <c r="H148" s="14">
         <v>48</v>
       </c>
-      <c r="I148" s="16">
+      <c r="I148" s="14">
         <v>8.16</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E149" s="13" t="s">
+      <c r="A149" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F149" s="13">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H149" s="16">
+      <c r="F149" s="11">
+        <v>1</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" s="14">
         <v>5</v>
       </c>
-      <c r="I149" s="16">
+      <c r="I149" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+      <c r="A150" s="12">
         <v>45787</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="13" t="s">
+      <c r="C150" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="E150" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F150" s="13">
-        <v>1</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H150" s="16">
+      <c r="F150" s="11">
+        <v>1</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="14">
         <v>17.91</v>
       </c>
-      <c r="I150" s="16">
+      <c r="I150" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="A151" s="12">
         <v>45787</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D151" s="13" t="s">
+      <c r="C151" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="E151" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F151" s="13">
-        <v>1</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H151" s="16">
+      <c r="F151" s="11">
+        <v>1</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" s="14">
         <v>32.65</v>
       </c>
-      <c r="I151" s="16">
+      <c r="I151" s="14">
         <v>32.65</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+      <c r="A152" s="12">
         <v>45787</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D152" s="13" t="s">
+      <c r="C152" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E152" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="13">
-        <v>1</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" s="16">
+      <c r="F152" s="11">
+        <v>1</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" s="14">
         <v>127</v>
       </c>
-      <c r="I152" s="16">
+      <c r="I152" s="14">
         <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+      <c r="A153" s="12">
         <v>45787</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D153" s="13" t="s">
+      <c r="C153" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="E153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F153" s="13">
-        <v>1</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H153" s="16">
+      <c r="F153" s="11">
+        <v>1</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="14">
         <v>133.33000000000001</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="14">
         <v>133.33000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="A154" s="12">
         <v>45787</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154" s="13" t="s">
+      <c r="C154" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F154" s="13">
-        <v>1</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H154" s="16">
+      <c r="F154" s="11">
+        <v>1</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" s="14">
         <v>143</v>
       </c>
-      <c r="I154" s="16">
+      <c r="I154" s="14">
         <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+      <c r="A155" s="12">
         <v>45787</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D155" s="13" t="s">
+      <c r="C155" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F155" s="13">
-        <v>1</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H155" s="16">
+      <c r="F155" s="11">
+        <v>1</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H155" s="14">
         <v>149.9</v>
       </c>
-      <c r="I155" s="16">
+      <c r="I155" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+      <c r="A156" s="12">
         <v>45787</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C156" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D156" s="13" t="s">
+      <c r="C156" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="E156" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="11">
         <v>2</v>
       </c>
-      <c r="G156" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H156" s="16">
+      <c r="G156" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H156" s="14">
         <v>99.9</v>
       </c>
-      <c r="I156" s="16">
+      <c r="I156" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+      <c r="A157" s="12">
         <v>45787</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C157" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="13" t="s">
+      <c r="C157" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E157" s="13" t="s">
+      <c r="E157" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F157" s="13">
-        <v>1</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H157" s="16">
+      <c r="F157" s="11">
+        <v>1</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H157" s="14">
         <v>62.82</v>
       </c>
-      <c r="I157" s="16">
+      <c r="I157" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="A158" s="12">
         <v>45787</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="13" t="s">
+      <c r="C158" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E158" s="13" t="s">
+      <c r="E158" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F158" s="13">
-        <v>1</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H158" s="16">
+      <c r="F158" s="11">
+        <v>1</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" s="14">
         <v>63.9</v>
       </c>
-      <c r="I158" s="16">
+      <c r="I158" s="14">
         <v>63.9</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+      <c r="A159" s="12">
         <v>45818</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C159" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D159" s="13" t="s">
+      <c r="C159" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="E159" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F159" s="13">
-        <v>1</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H159" s="16">
+      <c r="F159" s="11">
+        <v>1</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" s="14">
         <v>17.91</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
+      <c r="A160" s="12">
         <v>45818</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="13" t="s">
+      <c r="C160" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="E160" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F160" s="13">
-        <v>1</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H160" s="16">
+      <c r="F160" s="11">
+        <v>1</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H160" s="14">
         <v>32.65</v>
       </c>
-      <c r="I160" s="16">
+      <c r="I160" s="14">
         <v>32.65</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
+      <c r="A161" s="12">
         <v>45818</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C161" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D161" s="13" t="s">
+      <c r="C161" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="E161" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F161" s="13">
-        <v>1</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H161" s="16">
+      <c r="F161" s="11">
+        <v>1</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H161" s="14">
         <v>127</v>
       </c>
-      <c r="I161" s="16">
+      <c r="I161" s="14">
         <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="A162" s="12">
         <v>45818</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D162" s="13" t="s">
+      <c r="C162" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="E162" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F162" s="13">
-        <v>1</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H162" s="16">
+      <c r="F162" s="11">
+        <v>1</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="14">
         <v>133.33000000000001</v>
       </c>
-      <c r="I162" s="16">
+      <c r="I162" s="14">
         <v>133.33000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
+      <c r="A163" s="12">
         <v>45818</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D163" s="13" t="s">
+      <c r="C163" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F163" s="13">
-        <v>1</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H163" s="16">
+      <c r="F163" s="11">
+        <v>1</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="14">
         <v>143</v>
       </c>
-      <c r="I163" s="16">
+      <c r="I163" s="14">
         <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
+      <c r="A164" s="12">
         <v>45818</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D164" s="13" t="s">
+      <c r="C164" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="E164" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F164" s="13">
-        <v>1</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H164" s="16">
+      <c r="F164" s="11">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="14">
         <v>149.9</v>
       </c>
-      <c r="I164" s="16">
+      <c r="I164" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
+      <c r="A165" s="12">
         <v>45818</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D165" s="13" t="s">
+      <c r="C165" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="E165" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="11">
         <v>2</v>
       </c>
-      <c r="G165" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H165" s="16">
+      <c r="G165" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="14">
         <v>99.9</v>
       </c>
-      <c r="I165" s="16">
+      <c r="I165" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+      <c r="A166" s="12">
         <v>45818</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D166" s="13" t="s">
+      <c r="C166" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E166" s="13" t="s">
+      <c r="E166" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F166" s="13">
-        <v>1</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H166" s="16">
+      <c r="F166" s="11">
+        <v>1</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="14">
         <v>62.82</v>
       </c>
-      <c r="I166" s="16">
+      <c r="I166" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="A167" s="12">
         <v>45818</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D167" s="13" t="s">
+      <c r="C167" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="E167" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F167" s="13">
-        <v>1</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H167" s="16">
+      <c r="F167" s="11">
+        <v>1</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H167" s="14">
         <v>63.9</v>
       </c>
-      <c r="I167" s="16">
+      <c r="I167" s="14">
         <v>63.9</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="A168" s="12">
         <v>45848</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D168" s="13" t="s">
+      <c r="C168" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D168" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="E168" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F168" s="13">
-        <v>1</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H168" s="16">
+      <c r="F168" s="11">
+        <v>1</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" s="14">
         <v>17.91</v>
       </c>
-      <c r="I168" s="16">
+      <c r="I168" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="A169" s="12">
         <v>45848</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" s="13" t="s">
+      <c r="C169" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F169" s="13">
-        <v>1</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H169" s="16">
+      <c r="F169" s="11">
+        <v>1</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H169" s="14">
         <v>32.65</v>
       </c>
-      <c r="I169" s="16">
+      <c r="I169" s="14">
         <v>32.65</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
+      <c r="A170" s="12">
         <v>45848</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D170" s="13" t="s">
+      <c r="C170" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="E170" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F170" s="13">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H170" s="16">
+      <c r="F170" s="11">
+        <v>1</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H170" s="14">
         <v>127</v>
       </c>
-      <c r="I170" s="16">
+      <c r="I170" s="14">
         <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
+      <c r="A171" s="12">
         <v>45848</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D171" s="13" t="s">
+      <c r="C171" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D171" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E171" s="13" t="s">
+      <c r="E171" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F171" s="13">
-        <v>1</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H171" s="16">
+      <c r="F171" s="11">
+        <v>1</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H171" s="14">
         <v>133.33000000000001</v>
       </c>
-      <c r="I171" s="16">
+      <c r="I171" s="14">
         <v>133.33000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
+      <c r="A172" s="12">
         <v>45848</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C172" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D172" s="13" t="s">
+      <c r="C172" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F172" s="13">
-        <v>1</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H172" s="16">
+      <c r="F172" s="11">
+        <v>1</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H172" s="14">
         <v>149.9</v>
       </c>
-      <c r="I172" s="16">
+      <c r="I172" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
+      <c r="A173" s="12">
         <v>45848</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C173" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D173" s="13" t="s">
+      <c r="C173" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="E173" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F173" s="13">
+      <c r="F173" s="11">
         <v>2</v>
       </c>
-      <c r="G173" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H173" s="16">
+      <c r="G173" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" s="14">
         <v>99.9</v>
       </c>
-      <c r="I173" s="16">
+      <c r="I173" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
+      <c r="A174" s="12">
         <v>45848</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D174" s="13" t="s">
+      <c r="C174" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E174" s="13" t="s">
+      <c r="E174" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F174" s="13">
-        <v>1</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H174" s="16">
+      <c r="F174" s="11">
+        <v>1</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" s="14">
         <v>62.82</v>
       </c>
-      <c r="I174" s="16">
+      <c r="I174" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
+      <c r="A175" s="12">
         <v>45848</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C175" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D175" s="13" t="s">
+      <c r="C175" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E175" s="13" t="s">
+      <c r="E175" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F175" s="13">
-        <v>1</v>
-      </c>
-      <c r="G175" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H175" s="16">
+      <c r="F175" s="11">
+        <v>1</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" s="14">
         <v>63.9</v>
       </c>
-      <c r="I175" s="16">
+      <c r="I175" s="14">
         <v>63.9</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
+      <c r="A176" s="12">
         <v>45879</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C176" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D176" s="13" t="s">
+      <c r="C176" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E176" s="13" t="s">
+      <c r="E176" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F176" s="13">
-        <v>1</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H176" s="16">
+      <c r="F176" s="11">
+        <v>1</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" s="14">
         <v>17.91</v>
       </c>
-      <c r="I176" s="16">
+      <c r="I176" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
+      <c r="A177" s="12">
         <v>45879</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C177" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D177" s="13" t="s">
+      <c r="C177" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E177" s="13" t="s">
+      <c r="E177" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F177" s="13">
-        <v>1</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H177" s="16">
+      <c r="F177" s="11">
+        <v>1</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" s="14">
         <v>149.9</v>
       </c>
-      <c r="I177" s="16">
+      <c r="I177" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
+      <c r="A178" s="12">
         <v>45879</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D178" s="13" t="s">
+      <c r="C178" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D178" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="E178" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F178" s="13">
+      <c r="F178" s="11">
         <v>2</v>
       </c>
-      <c r="G178" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H178" s="16">
+      <c r="G178" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H178" s="14">
         <v>99.9</v>
       </c>
-      <c r="I178" s="16">
+      <c r="I178" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
+      <c r="A179" s="12">
         <v>45879</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C179" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D179" s="13" t="s">
+      <c r="C179" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="E179" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F179" s="13">
-        <v>1</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H179" s="16">
+      <c r="F179" s="11">
+        <v>1</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H179" s="14">
         <v>62.82</v>
       </c>
-      <c r="I179" s="16">
+      <c r="I179" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
+      <c r="A180" s="12">
         <v>45879</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D180" s="13" t="s">
+      <c r="C180" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="E180" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F180" s="13">
-        <v>1</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H180" s="16">
+      <c r="F180" s="11">
+        <v>1</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H180" s="14">
         <v>63.9</v>
       </c>
-      <c r="I180" s="16">
+      <c r="I180" s="14">
         <v>63.9</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
+      <c r="A181" s="12">
         <v>45910</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D181" s="13" t="s">
+      <c r="C181" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D181" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E181" s="13" t="s">
+      <c r="E181" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F181" s="13">
-        <v>1</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H181" s="16">
+      <c r="F181" s="11">
+        <v>1</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H181" s="14">
         <v>17.91</v>
       </c>
-      <c r="I181" s="16">
+      <c r="I181" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
+      <c r="A182" s="12">
         <v>45910</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D182" s="13" t="s">
+      <c r="C182" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D182" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E182" s="13" t="s">
+      <c r="E182" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F182" s="13">
-        <v>1</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H182" s="16">
+      <c r="F182" s="11">
+        <v>1</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" s="14">
         <v>149.9</v>
       </c>
-      <c r="I182" s="16">
+      <c r="I182" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
+      <c r="A183" s="12">
         <v>45910</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D183" s="13" t="s">
+      <c r="C183" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D183" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="E183" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F183" s="11">
         <v>2</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H183" s="16">
+      <c r="G183" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H183" s="14">
         <v>99.9</v>
       </c>
-      <c r="I183" s="16">
+      <c r="I183" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
+      <c r="A184" s="12">
         <v>45910</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D184" s="13" t="s">
+      <c r="C184" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D184" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="E184" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F184" s="13">
-        <v>1</v>
-      </c>
-      <c r="G184" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H184" s="16">
+      <c r="F184" s="11">
+        <v>1</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="14">
         <v>62.82</v>
       </c>
-      <c r="I184" s="16">
+      <c r="I184" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="14">
+      <c r="A185" s="12">
         <v>45940</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C185" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D185" s="13" t="s">
+      <c r="C185" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="E185" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F185" s="13">
-        <v>1</v>
-      </c>
-      <c r="G185" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H185" s="16">
+      <c r="F185" s="11">
+        <v>1</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" s="14">
         <v>17.91</v>
       </c>
-      <c r="I185" s="16">
+      <c r="I185" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="14">
+      <c r="A186" s="12">
         <v>45940</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D186" s="13" t="s">
+      <c r="C186" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D186" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="E186" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F186" s="13">
-        <v>1</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H186" s="16">
+      <c r="F186" s="11">
+        <v>1</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H186" s="14">
         <v>149.9</v>
       </c>
-      <c r="I186" s="16">
+      <c r="I186" s="14">
         <v>149.9</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
+      <c r="A187" s="12">
         <v>45940</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C187" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D187" s="13" t="s">
+      <c r="C187" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D187" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="E187" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F187" s="13">
+      <c r="F187" s="11">
         <v>2</v>
       </c>
-      <c r="G187" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H187" s="16">
+      <c r="G187" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" s="14">
         <v>99.9</v>
       </c>
-      <c r="I187" s="16">
+      <c r="I187" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="14">
+      <c r="A188" s="12">
         <v>45940</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C188" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D188" s="13" t="s">
+      <c r="C188" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="E188" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F188" s="13">
-        <v>1</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H188" s="16">
+      <c r="F188" s="11">
+        <v>1</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" s="14">
         <v>62.82</v>
       </c>
-      <c r="I188" s="16">
+      <c r="I188" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="14">
+      <c r="A189" s="12">
         <v>45971</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D189" s="13" t="s">
+      <c r="C189" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="E189" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F189" s="13">
-        <v>1</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H189" s="16">
+      <c r="F189" s="11">
+        <v>1</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" s="14">
         <v>17.91</v>
       </c>
-      <c r="I189" s="16">
+      <c r="I189" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
+      <c r="A190" s="12">
         <v>45971</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D190" s="13" t="s">
+      <c r="C190" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E190" s="13" t="s">
+      <c r="E190" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F190" s="13">
+      <c r="F190" s="11">
         <v>2</v>
       </c>
-      <c r="G190" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H190" s="16">
+      <c r="G190" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" s="14">
         <v>99.9</v>
       </c>
-      <c r="I190" s="16">
+      <c r="I190" s="14">
         <v>199.8</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="14">
+      <c r="A191" s="12">
         <v>45971</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D191" s="13" t="s">
+      <c r="C191" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="E191" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F191" s="13">
-        <v>1</v>
-      </c>
-      <c r="G191" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H191" s="16">
+      <c r="F191" s="11">
+        <v>1</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" s="14">
         <v>62.82</v>
       </c>
-      <c r="I191" s="16">
+      <c r="I191" s="14">
         <v>62.82</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="14">
+      <c r="A192" s="12">
         <v>46001</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C192" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D192" s="13" t="s">
+      <c r="C192" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D192" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E192" s="13" t="s">
+      <c r="E192" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F192" s="13">
-        <v>1</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H192" s="16">
+      <c r="F192" s="11">
+        <v>1</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" s="14">
         <v>17.91</v>
       </c>
-      <c r="I192" s="16">
+      <c r="I192" s="14">
         <v>17.91</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="14">
+      <c r="A193" s="12">
         <v>46001</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D193" s="13" t="s">
+      <c r="C193" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="E193" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F193" s="13">
+      <c r="F193" s="11">
         <v>2</v>
       </c>
-      <c r="G193" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H193" s="16">
+      <c r="G193" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="14">
         <v>99.9</v>
       </c>
-      <c r="I193" s="16">
+      <c r="I193" s="14">
         <v>199.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" s="4">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="I194" s="4">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.252</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="I195" s="4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F196" s="3">
+        <v>2</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H196" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="I196" s="4">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F197" s="3">
+        <v>2</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" s="4">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="I197" s="4">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
+        <v>45757</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" s="4">
+        <v>10.49</v>
+      </c>
+      <c r="I198" s="4">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
+        <v>45757</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="I199" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="I200" s="4">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" s="4">
+        <v>14.39</v>
+      </c>
+      <c r="I201" s="4">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I202" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" s="4">
+        <v>21.87</v>
+      </c>
+      <c r="I203" s="4">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H204" s="4">
+        <v>4.09</v>
+      </c>
+      <c r="I204" s="4">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="I205" s="4">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H206" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="I206" s="4">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F207" s="3">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H207" s="4">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="I207" s="4">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" s="4">
+        <v>9.49</v>
+      </c>
+      <c r="I208" s="4">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I209" s="2">
+        <v>249.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I210" s="2">
+        <v>884.16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H211" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I211" s="2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I212" s="2">
+        <v>8699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G213" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H213" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I213" s="2">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="12">
+        <v>45757</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G214" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H214" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I214" s="2">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/gastos.xlsx
+++ b/datasets/gastos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Documents\GitHub\streamlit_financas\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66A9C2-3EFB-45D0-BDE3-75FED9A0841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8F93D-18C5-488A-9786-4F8A8F7FF448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7162,7 +7162,7 @@
         <v>99</v>
       </c>
       <c r="I212" s="2">
-        <v>8699</v>
+        <v>86.9</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
